--- a/data/trans_orig/P55$nadie-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55$nadie-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABAC21B5-80D8-41F1-9858-7ADF57D02BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4642FBDF-9415-4A9D-9364-920BF439F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDACC6D7-2BE1-4424-88CB-B0FCE684801C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8A31CBE3-B841-40EA-BFAE-E4A3AF4A1C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="873">
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2007</t>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -770,7 +770,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2012</t>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>5,07%</t>
@@ -1346,7 +1346,7 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2016</t>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -1940,724 +1940,724 @@
     <t>2,38%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2023</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
   </si>
 </sst>
 </file>
@@ -3069,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BCD058-1E6E-44C8-9423-C34A88E2AB15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B0CF03-44AB-4B6E-8411-156B483E64E7}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4498,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC1691F-9637-43BA-A738-4229D74AF791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7044E92C-FCE0-4BD9-AD05-A058F50242A9}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5927,7 +5927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE6D3DF-CED3-403F-84F2-E197016B12CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43152B7-9718-4C50-AF1B-07C0E9F6CB78}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7356,7 +7356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55877576-7473-4688-9919-AC47FB18638E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9FC23-7992-48E1-97FC-6A5CFC7049F6}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7444,31 +7444,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7477,31 +7477,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7510,31 +7510,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7543,31 +7543,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7576,31 +7576,31 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7609,31 +7609,31 @@
         <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7642,31 +7642,31 @@
         <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7681,25 +7681,25 @@
         <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>684</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7732,7 +7732,7 @@
         <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7741,31 +7741,31 @@
         <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7776,19 +7776,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>702</v>
@@ -7824,13 +7824,13 @@
         <v>710</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>341</v>
+        <v>711</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>711</v>
+        <v>196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>712</v>
@@ -7857,16 +7857,16 @@
         <v>717</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -7875,31 +7875,31 @@
         <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -7908,31 +7908,31 @@
         <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>734</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7941,31 +7941,31 @@
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>742</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7974,31 +7974,31 @@
         <v>68</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -8007,7 +8007,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>752</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>50</v>
@@ -8016,22 +8016,22 @@
         <v>753</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>754</v>
+        <v>693</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>755</v>
+        <v>573</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>756</v>
+        <v>373</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>234</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -8040,31 +8040,31 @@
         <v>81</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -8073,22 +8073,22 @@
         <v>86</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>250</v>
+        <v>758</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>762</v>
+        <v>663</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>229</v>
@@ -8097,7 +8097,7 @@
         <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -8108,31 +8108,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -8141,31 +8141,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -8174,31 +8174,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>534</v>
+        <v>779</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -8207,31 +8207,31 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -8240,25 +8240,25 @@
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>798</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>799</v>
@@ -8276,13 +8276,13 @@
         <v>801</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>803</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>804</v>
@@ -8321,16 +8321,16 @@
         <v>811</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>506</v>
+        <v>812</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>251</v>
+        <v>813</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>752</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>812</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8363,7 +8363,7 @@
         <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -8396,7 +8396,7 @@
         <v>69</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8429,7 +8429,7 @@
         <v>69</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8440,31 +8440,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>249</v>
+        <v>815</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>814</v>
+        <v>132</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>618</v>
+        <v>820</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>818</v>
+        <v>9</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8473,31 +8473,31 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>313</v>
+        <v>828</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>681</v>
+        <v>829</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>683</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8506,31 +8506,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>829</v>
+        <v>188</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>62</v>
+        <v>836</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8539,31 +8539,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>90</v>
+        <v>839</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>835</v>
+        <v>657</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8572,31 +8572,31 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>760</v>
+        <v>247</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>113</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>843</v>
+        <v>172</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>639</v>
+        <v>848</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>846</v>
+        <v>176</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>847</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8605,31 +8605,31 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>848</v>
+        <v>158</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>851</v>
+        <v>450</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>852</v>
+        <v>365</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>853</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>357</v>
+        <v>854</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>855</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8638,10 +8638,10 @@
         <v>68</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>856</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>857</v>
@@ -8650,19 +8650,19 @@
         <v>858</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>862</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -8671,31 +8671,31 @@
         <v>77</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>493</v>
+        <v>863</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>210</v>
+        <v>536</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>429</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>502</v>
+        <v>309</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>758</v>
+        <v>245</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>864</v>
+        <v>223</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>309</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>865</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -8704,31 +8704,31 @@
         <v>81</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>280</v>
+        <v>864</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>696</v>
-      </c>
       <c r="I42" s="7" t="s">
-        <v>502</v>
+        <v>868</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>868</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -8737,31 +8737,31 @@
         <v>86</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>694</v>
+        <v>869</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>84</v>
+        <v>870</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>869</v>
+        <v>57</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>234</v>
+        <v>871</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>501</v>
+        <v>282</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>870</v>
+        <v>87</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>872</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
